--- a/Schedule of tasks TMA02.xlsx
+++ b/Schedule of tasks TMA02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daynestar\Desktop\Computer science\Final Project\Final-Project-Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E41CA-D018-4538-94B0-313AFB527226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFBDFC-15B6-45D4-94E7-F83C5C24F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="0" windowWidth="22425" windowHeight="13080" xr2:uid="{BAA51F6B-F431-4C50-A8A4-4D50ABDE29D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BAA51F6B-F431-4C50-A8A4-4D50ABDE29D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Deadlines</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Any final evaluation &amp; prototyping if necessary</t>
+  </si>
+  <si>
+    <t>Extension</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +220,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -444,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC51A717-ACC5-4450-8103-E213386FFCAA}">
   <dimension ref="A2:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1112,9 @@
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="38" t="s">
+        <v>45</v>
+      </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -1146,13 +1157,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
